--- a/testdata/test_seller_case_api.xlsx
+++ b/testdata/test_seller_case_api.xlsx
@@ -61,7 +61,7 @@
     <t>卖家</t>
   </si>
   <si>
-    <t>api/sendSms</t>
+    <t>/api/sendSms</t>
   </si>
   <si>
     <t>发送登录验证码</t>
@@ -82,7 +82,7 @@
     <t>passed</t>
   </si>
   <si>
-    <t>api/login</t>
+    <t>/api/login</t>
   </si>
   <si>
     <t>登录</t>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
